--- a/natmiOut/OldD2/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.354669594394</v>
+        <v>112.432976</v>
       </c>
       <c r="H2">
-        <v>112.354669594394</v>
+        <v>224.865952</v>
       </c>
       <c r="I2">
-        <v>0.1477643192176357</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J2">
-        <v>0.1477643192176357</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90659082210106</v>
+        <v>1.9078655</v>
       </c>
       <c r="N2">
-        <v>1.90659082210106</v>
+        <v>3.815731</v>
       </c>
       <c r="O2">
-        <v>0.01300710905667956</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P2">
-        <v>0.01300710905667956</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q2">
-        <v>214.2143818688686</v>
+        <v>214.506995972728</v>
       </c>
       <c r="R2">
-        <v>214.2143818688686</v>
+        <v>858.027983890912</v>
       </c>
       <c r="S2">
-        <v>0.0019219866147498</v>
+        <v>0.001777412721712467</v>
       </c>
       <c r="T2">
-        <v>0.0019219866147498</v>
+        <v>0.0008797010022671354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.354669594394</v>
+        <v>112.432976</v>
       </c>
       <c r="H3">
-        <v>112.354669594394</v>
+        <v>224.865952</v>
       </c>
       <c r="I3">
-        <v>0.1477643192176357</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J3">
-        <v>0.1477643192176357</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>62.7743674168353</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N3">
-        <v>62.7743674168353</v>
+        <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.4282581419620247</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P3">
-        <v>0.4282581419620247</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q3">
-        <v>7052.993310115622</v>
+        <v>150.1819354377547</v>
       </c>
       <c r="R3">
-        <v>7052.993310115622</v>
+        <v>901.091612626528</v>
       </c>
       <c r="S3">
-        <v>0.06328127279642816</v>
+        <v>0.001244412945172209</v>
       </c>
       <c r="T3">
-        <v>0.06328127279642816</v>
+        <v>0.0009238523796944684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.354669594394</v>
+        <v>112.432976</v>
       </c>
       <c r="H4">
-        <v>112.354669594394</v>
+        <v>224.865952</v>
       </c>
       <c r="I4">
-        <v>0.1477643192176357</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J4">
-        <v>0.1477643192176357</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.1811582375426</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N4">
-        <v>80.1811582375426</v>
+        <v>193.99091</v>
       </c>
       <c r="O4">
-        <v>0.5470104321268556</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P4">
-        <v>0.5470104321268556</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q4">
-        <v>9008.727541474922</v>
+        <v>7270.325109416054</v>
       </c>
       <c r="R4">
-        <v>9008.727541474922</v>
+        <v>43621.95065649632</v>
       </c>
       <c r="S4">
-        <v>0.08082862410816954</v>
+        <v>0.06024217663327217</v>
       </c>
       <c r="T4">
-        <v>0.08082862410816954</v>
+        <v>0.04472380205987101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>112.354669594394</v>
+        <v>112.432976</v>
       </c>
       <c r="H5">
-        <v>112.354669594394</v>
+        <v>224.865952</v>
       </c>
       <c r="I5">
-        <v>0.1477643192176357</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J5">
-        <v>0.1477643192176357</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.71855827553021</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N5">
-        <v>1.71855827553021</v>
+        <v>241.87754</v>
       </c>
       <c r="O5">
-        <v>0.01172431685444028</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P5">
-        <v>0.01172431685444028</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q5">
-        <v>193.0880472259083</v>
+        <v>9065.003883253014</v>
       </c>
       <c r="R5">
-        <v>193.0880472259083</v>
+        <v>54390.02329951808</v>
       </c>
       <c r="S5">
-        <v>0.00173243569828822</v>
+        <v>0.07511294981966606</v>
       </c>
       <c r="T5">
-        <v>0.00173243569828822</v>
+        <v>0.05576386657337982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>214.219415665252</v>
+        <v>112.432976</v>
       </c>
       <c r="H6">
-        <v>214.219415665252</v>
+        <v>224.865952</v>
       </c>
       <c r="I6">
-        <v>0.2817327150998545</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J6">
-        <v>0.2817327150998545</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.90659082210106</v>
+        <v>1.745477</v>
       </c>
       <c r="N6">
-        <v>1.90659082210106</v>
+        <v>5.236431</v>
       </c>
       <c r="O6">
-        <v>0.01300710905667956</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P6">
-        <v>0.01300710905667956</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q6">
-        <v>408.4287718232215</v>
+        <v>196.249173649552</v>
       </c>
       <c r="R6">
-        <v>408.4287718232215</v>
+        <v>1177.495041897312</v>
       </c>
       <c r="S6">
-        <v>0.003664528150138241</v>
+        <v>0.001626127746036873</v>
       </c>
       <c r="T6">
-        <v>0.003664528150138241</v>
+        <v>0.001207237512026581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>214.219415665252</v>
+        <v>226.779063</v>
       </c>
       <c r="H7">
-        <v>214.219415665252</v>
+        <v>680.337189</v>
       </c>
       <c r="I7">
-        <v>0.2817327150998545</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J7">
-        <v>0.2817327150998545</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.7743674168353</v>
+        <v>1.9078655</v>
       </c>
       <c r="N7">
-        <v>62.7743674168353</v>
+        <v>3.815731</v>
       </c>
       <c r="O7">
-        <v>0.4282581419620247</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P7">
-        <v>0.4282581419620247</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q7">
-        <v>13447.48830679029</v>
+        <v>432.6639504200265</v>
       </c>
       <c r="R7">
-        <v>13447.48830679029</v>
+        <v>2595.983702520159</v>
       </c>
       <c r="S7">
-        <v>0.1206543290985801</v>
+        <v>0.003585069131268331</v>
       </c>
       <c r="T7">
-        <v>0.1206543290985801</v>
+        <v>0.002661555925740619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>214.219415665252</v>
+        <v>226.779063</v>
       </c>
       <c r="H8">
-        <v>214.219415665252</v>
+        <v>680.337189</v>
       </c>
       <c r="I8">
-        <v>0.2817327150998545</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J8">
-        <v>0.2817327150998545</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.1811582375426</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N8">
-        <v>80.1811582375426</v>
+        <v>4.007239</v>
       </c>
       <c r="O8">
-        <v>0.5470104321268556</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P8">
-        <v>0.5470104321268556</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q8">
-        <v>17176.36086500948</v>
+        <v>302.919301879019</v>
       </c>
       <c r="R8">
-        <v>17176.36086500948</v>
+        <v>2726.273716911171</v>
       </c>
       <c r="S8">
-        <v>0.1541107342310437</v>
+        <v>0.002510000284002301</v>
       </c>
       <c r="T8">
-        <v>0.1541107342310437</v>
+        <v>0.002795136949200275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>214.219415665252</v>
+        <v>226.779063</v>
       </c>
       <c r="H9">
-        <v>214.219415665252</v>
+        <v>680.337189</v>
       </c>
       <c r="I9">
-        <v>0.2817327150998545</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J9">
-        <v>0.2817327150998545</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71855827553021</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N9">
-        <v>1.71855827553021</v>
+        <v>193.99091</v>
       </c>
       <c r="O9">
-        <v>0.01172431685444028</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P9">
-        <v>0.01172431685444028</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q9">
-        <v>368.1485495707647</v>
+        <v>14664.35893343911</v>
       </c>
       <c r="R9">
-        <v>368.1485495707647</v>
+        <v>131979.230400952</v>
       </c>
       <c r="S9">
-        <v>0.003303123620092446</v>
+        <v>0.121509408147072</v>
       </c>
       <c r="T9">
-        <v>0.003303123620092446</v>
+        <v>0.1353129075530521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.731228149807</v>
+        <v>226.779063</v>
       </c>
       <c r="H10">
-        <v>154.731228149807</v>
+        <v>680.337189</v>
       </c>
       <c r="I10">
-        <v>0.2034962558459226</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J10">
-        <v>0.2034962558459226</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.90659082210106</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N10">
-        <v>1.90659082210106</v>
+        <v>241.87754</v>
       </c>
       <c r="O10">
-        <v>0.01300710905667956</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P10">
-        <v>0.01300710905667956</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q10">
-        <v>295.0091394828472</v>
+        <v>18284.25396064834</v>
       </c>
       <c r="R10">
-        <v>295.0091394828472</v>
+        <v>164558.2856458351</v>
       </c>
       <c r="S10">
-        <v>0.002646897992413882</v>
+        <v>0.1515039891790277</v>
       </c>
       <c r="T10">
-        <v>0.002646897992413882</v>
+        <v>0.1687148805538345</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.731228149807</v>
+        <v>226.779063</v>
       </c>
       <c r="H11">
-        <v>154.731228149807</v>
+        <v>680.337189</v>
       </c>
       <c r="I11">
-        <v>0.2034962558459226</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J11">
-        <v>0.2034962558459226</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.7743674168353</v>
+        <v>1.745477</v>
       </c>
       <c r="N11">
-        <v>62.7743674168353</v>
+        <v>5.236431</v>
       </c>
       <c r="O11">
-        <v>0.4282581419620247</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P11">
-        <v>0.4282581419620247</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q11">
-        <v>9713.154966734153</v>
+        <v>395.837638548051</v>
       </c>
       <c r="R11">
-        <v>9713.154966734153</v>
+        <v>3562.538746932459</v>
       </c>
       <c r="S11">
-        <v>0.08714892842480361</v>
+        <v>0.003279924980056955</v>
       </c>
       <c r="T11">
-        <v>0.08714892842480361</v>
+        <v>0.003652525284875132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.731228149807</v>
+        <v>175.151614</v>
       </c>
       <c r="H12">
-        <v>154.731228149807</v>
+        <v>525.454842</v>
       </c>
       <c r="I12">
-        <v>0.2034962558459226</v>
+        <v>0.218101185932108</v>
       </c>
       <c r="J12">
-        <v>0.2034962558459226</v>
+        <v>0.241849716306223</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>80.1811582375426</v>
+        <v>1.9078655</v>
       </c>
       <c r="N12">
-        <v>80.1811582375426</v>
+        <v>3.815731</v>
       </c>
       <c r="O12">
-        <v>0.5470104321268556</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P12">
-        <v>0.5470104321268556</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q12">
-        <v>12406.52908856898</v>
+        <v>334.165721619917</v>
       </c>
       <c r="R12">
-        <v>12406.52908856898</v>
+        <v>2004.994329719502</v>
       </c>
       <c r="S12">
-        <v>0.1113145748464753</v>
+        <v>0.002768909247337467</v>
       </c>
       <c r="T12">
-        <v>0.1113145748464753</v>
+        <v>0.002055638690705471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.731228149807</v>
+        <v>175.151614</v>
       </c>
       <c r="H13">
-        <v>154.731228149807</v>
+        <v>525.454842</v>
       </c>
       <c r="I13">
-        <v>0.2034962558459226</v>
+        <v>0.218101185932108</v>
       </c>
       <c r="J13">
-        <v>0.2034962558459226</v>
+        <v>0.241849716306223</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.71855827553021</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N13">
-        <v>1.71855827553021</v>
+        <v>4.007239</v>
       </c>
       <c r="O13">
-        <v>0.01172431685444028</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P13">
-        <v>0.01172431685444028</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q13">
-        <v>265.9146326198038</v>
+        <v>233.9581261779153</v>
       </c>
       <c r="R13">
-        <v>265.9146326198038</v>
+        <v>2105.623135601238</v>
       </c>
       <c r="S13">
-        <v>0.002385854582229842</v>
+        <v>0.001938585489629003</v>
       </c>
       <c r="T13">
-        <v>0.002385854582229842</v>
+        <v>0.00215880929009511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.2214345752472</v>
+        <v>175.151614</v>
       </c>
       <c r="H14">
-        <v>78.2214345752472</v>
+        <v>525.454842</v>
       </c>
       <c r="I14">
-        <v>0.1028736684462195</v>
+        <v>0.218101185932108</v>
       </c>
       <c r="J14">
-        <v>0.1028736684462195</v>
+        <v>0.241849716306223</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.90659082210106</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N14">
-        <v>1.90659082210106</v>
+        <v>193.99091</v>
       </c>
       <c r="O14">
-        <v>0.01300710905667956</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P14">
-        <v>0.01300710905667956</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q14">
-        <v>149.1362692527448</v>
+        <v>11325.94032927625</v>
       </c>
       <c r="R14">
-        <v>149.1362692527448</v>
+        <v>101933.4629634862</v>
       </c>
       <c r="S14">
-        <v>0.001338089024540673</v>
+        <v>0.09384715093008573</v>
       </c>
       <c r="T14">
-        <v>0.001338089024540673</v>
+        <v>0.104508210940751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.2214345752472</v>
+        <v>175.151614</v>
       </c>
       <c r="H15">
-        <v>78.2214345752472</v>
+        <v>525.454842</v>
       </c>
       <c r="I15">
-        <v>0.1028736684462195</v>
+        <v>0.218101185932108</v>
       </c>
       <c r="J15">
-        <v>0.1028736684462195</v>
+        <v>0.241849716306223</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.7743674168353</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N15">
-        <v>62.7743674168353</v>
+        <v>241.87754</v>
       </c>
       <c r="O15">
-        <v>0.4282581419620247</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P15">
-        <v>0.4282581419620247</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q15">
-        <v>4910.301073898512</v>
+        <v>14121.74717378319</v>
       </c>
       <c r="R15">
-        <v>4910.301073898512</v>
+        <v>127095.7245640487</v>
       </c>
       <c r="S15">
-        <v>0.04405648610559535</v>
+        <v>0.1170133074945514</v>
       </c>
       <c r="T15">
-        <v>0.04405648610559535</v>
+        <v>0.130306048732644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.2214345752472</v>
+        <v>175.151614</v>
       </c>
       <c r="H16">
-        <v>78.2214345752472</v>
+        <v>525.454842</v>
       </c>
       <c r="I16">
-        <v>0.1028736684462195</v>
+        <v>0.218101185932108</v>
       </c>
       <c r="J16">
-        <v>0.1028736684462195</v>
+        <v>0.241849716306223</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.1811582375426</v>
+        <v>1.745477</v>
       </c>
       <c r="N16">
-        <v>80.1811582375426</v>
+        <v>5.236431</v>
       </c>
       <c r="O16">
-        <v>0.5470104321268556</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P16">
-        <v>0.5470104321268556</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q16">
-        <v>6271.885223245482</v>
+        <v>305.723113749878</v>
       </c>
       <c r="R16">
-        <v>6271.885223245482</v>
+        <v>2751.508023748902</v>
       </c>
       <c r="S16">
-        <v>0.05627296983124143</v>
+        <v>0.002533232770504451</v>
       </c>
       <c r="T16">
-        <v>0.05627296983124143</v>
+        <v>0.002821008652027499</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.2214345752472</v>
+        <v>80.34609466666667</v>
       </c>
       <c r="H17">
-        <v>78.2214345752472</v>
+        <v>241.038284</v>
       </c>
       <c r="I17">
-        <v>0.1028736684462195</v>
+        <v>0.1000480562617791</v>
       </c>
       <c r="J17">
-        <v>0.1028736684462195</v>
+        <v>0.1109420561859411</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.71855827553021</v>
+        <v>1.9078655</v>
       </c>
       <c r="N17">
-        <v>1.71855827553021</v>
+        <v>3.815731</v>
       </c>
       <c r="O17">
-        <v>0.01172431685444028</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P17">
-        <v>0.01172431685444028</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q17">
-        <v>134.428093713136</v>
+        <v>153.2895420742673</v>
       </c>
       <c r="R17">
-        <v>134.428093713136</v>
+        <v>919.737252445604</v>
       </c>
       <c r="S17">
-        <v>0.001206123484842113</v>
+        <v>0.001270162686082841</v>
       </c>
       <c r="T17">
-        <v>0.001206123484842113</v>
+        <v>0.0009429689916753179</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.93658412321039</v>
+        <v>80.34609466666667</v>
       </c>
       <c r="H18">
-        <v>78.93658412321039</v>
+        <v>241.038284</v>
       </c>
       <c r="I18">
-        <v>0.1038142042199001</v>
+        <v>0.1000480562617791</v>
       </c>
       <c r="J18">
-        <v>0.1038142042199001</v>
+        <v>0.1109420561859411</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.90659082210106</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N18">
-        <v>1.90659082210106</v>
+        <v>4.007239</v>
       </c>
       <c r="O18">
-        <v>0.01300710905667956</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P18">
-        <v>0.01300710905667956</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q18">
-        <v>150.4997668173212</v>
+        <v>107.3220013486529</v>
       </c>
       <c r="R18">
-        <v>150.4997668173212</v>
+        <v>965.8980121378761</v>
       </c>
       <c r="S18">
-        <v>0.001350322675920644</v>
+        <v>0.0008892739821921265</v>
       </c>
       <c r="T18">
-        <v>0.001350322675920644</v>
+        <v>0.000990295730813312</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.93658412321039</v>
+        <v>80.34609466666667</v>
       </c>
       <c r="H19">
-        <v>78.93658412321039</v>
+        <v>241.038284</v>
       </c>
       <c r="I19">
-        <v>0.1038142042199001</v>
+        <v>0.1000480562617791</v>
       </c>
       <c r="J19">
-        <v>0.1038142042199001</v>
+        <v>0.1109420561859411</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.7743674168353</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N19">
-        <v>62.7743674168353</v>
+        <v>193.99091</v>
       </c>
       <c r="O19">
-        <v>0.4282581419620247</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P19">
-        <v>0.4282581419620247</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q19">
-        <v>4955.194134380337</v>
+        <v>5195.470673110939</v>
       </c>
       <c r="R19">
-        <v>4955.194134380337</v>
+        <v>46759.23605799845</v>
       </c>
       <c r="S19">
-        <v>0.04445927820848058</v>
+        <v>0.04304985778107431</v>
       </c>
       <c r="T19">
-        <v>0.04445927820848058</v>
+        <v>0.04794033248069043</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>78.93658412321039</v>
+        <v>80.34609466666667</v>
       </c>
       <c r="H20">
-        <v>78.93658412321039</v>
+        <v>241.038284</v>
       </c>
       <c r="I20">
-        <v>0.1038142042199001</v>
+        <v>0.1000480562617791</v>
       </c>
       <c r="J20">
-        <v>0.1038142042199001</v>
+        <v>0.1109420561859411</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>80.1811582375426</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N20">
-        <v>80.1811582375426</v>
+        <v>241.87754</v>
       </c>
       <c r="O20">
-        <v>0.5470104321268556</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P20">
-        <v>0.5470104321268556</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q20">
-        <v>6329.226742314226</v>
+        <v>6477.971908860152</v>
       </c>
       <c r="R20">
-        <v>6329.226742314226</v>
+        <v>58301.74717974136</v>
       </c>
       <c r="S20">
-        <v>0.05678745271123317</v>
+        <v>0.05367670937486768</v>
       </c>
       <c r="T20">
-        <v>0.05678745271123317</v>
+        <v>0.05977439709526337</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>78.93658412321039</v>
+        <v>80.34609466666667</v>
       </c>
       <c r="H21">
-        <v>78.93658412321039</v>
+        <v>241.038284</v>
       </c>
       <c r="I21">
-        <v>0.1038142042199001</v>
+        <v>0.1000480562617791</v>
       </c>
       <c r="J21">
-        <v>0.1038142042199001</v>
+        <v>0.1109420561859411</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.71855827553021</v>
+        <v>1.745477</v>
       </c>
       <c r="N21">
-        <v>1.71855827553021</v>
+        <v>5.236431</v>
       </c>
       <c r="O21">
-        <v>0.01172431685444028</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P21">
-        <v>0.01172431685444028</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q21">
-        <v>135.6571198870298</v>
+        <v>140.2422602804893</v>
       </c>
       <c r="R21">
-        <v>135.6571198870298</v>
+        <v>1262.180342524404</v>
       </c>
       <c r="S21">
-        <v>0.00121715062426568</v>
+        <v>0.001162052437562197</v>
       </c>
       <c r="T21">
-        <v>0.00121715062426568</v>
+        <v>0.001294061887498719</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>121.90067314908</v>
+        <v>84.22342166666667</v>
       </c>
       <c r="H22">
-        <v>121.90067314908</v>
+        <v>252.670265</v>
       </c>
       <c r="I22">
-        <v>0.1603188371704675</v>
+        <v>0.1048761568863419</v>
       </c>
       <c r="J22">
-        <v>0.1603188371704675</v>
+        <v>0.1162958774471969</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.90659082210106</v>
+        <v>1.9078655</v>
       </c>
       <c r="N22">
-        <v>1.90659082210106</v>
+        <v>3.815731</v>
       </c>
       <c r="O22">
-        <v>0.01300710905667956</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P22">
-        <v>0.01300710905667956</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q22">
-        <v>232.414704633977</v>
+        <v>160.6869604897858</v>
       </c>
       <c r="R22">
-        <v>232.414704633977</v>
+        <v>964.1217629387151</v>
       </c>
       <c r="S22">
-        <v>0.002085284598916325</v>
+        <v>0.001331457962444104</v>
       </c>
       <c r="T22">
-        <v>0.002085284598916325</v>
+        <v>0.0009884746151502862</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>121.90067314908</v>
+        <v>84.22342166666667</v>
       </c>
       <c r="H23">
-        <v>121.90067314908</v>
+        <v>252.670265</v>
       </c>
       <c r="I23">
-        <v>0.1603188371704675</v>
+        <v>0.1048761568863419</v>
       </c>
       <c r="J23">
-        <v>0.1603188371704675</v>
+        <v>0.1162958774471969</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>62.7743674168353</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N23">
-        <v>62.7743674168353</v>
+        <v>4.007239</v>
       </c>
       <c r="O23">
-        <v>0.4282581419620247</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P23">
-        <v>0.4282581419620247</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q23">
-        <v>7652.237644619897</v>
+        <v>112.5011266720372</v>
       </c>
       <c r="R23">
-        <v>7652.237644619897</v>
+        <v>1012.510140048335</v>
       </c>
       <c r="S23">
-        <v>0.06865784732813679</v>
+        <v>0.0009321884018145842</v>
       </c>
       <c r="T23">
-        <v>0.06865784732813679</v>
+        <v>0.001038085239326414</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>121.90067314908</v>
+        <v>84.22342166666667</v>
       </c>
       <c r="H24">
-        <v>121.90067314908</v>
+        <v>252.670265</v>
       </c>
       <c r="I24">
-        <v>0.1603188371704675</v>
+        <v>0.1048761568863419</v>
       </c>
       <c r="J24">
-        <v>0.1603188371704675</v>
+        <v>0.1162958774471969</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>80.1811582375426</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N24">
-        <v>80.1811582375426</v>
+        <v>193.99091</v>
       </c>
       <c r="O24">
-        <v>0.5470104321268556</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P24">
-        <v>0.5470104321268556</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q24">
-        <v>9774.137163029345</v>
+        <v>5446.192737476796</v>
       </c>
       <c r="R24">
-        <v>9774.137163029345</v>
+        <v>49015.73463729116</v>
       </c>
       <c r="S24">
-        <v>0.08769607639869244</v>
+        <v>0.0451273498684398</v>
       </c>
       <c r="T24">
-        <v>0.08769607639869244</v>
+        <v>0.05025382819305235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>84.22342166666667</v>
+      </c>
+      <c r="H25">
+        <v>252.670265</v>
+      </c>
+      <c r="I25">
+        <v>0.1048761568863419</v>
+      </c>
+      <c r="J25">
+        <v>0.1162958774471969</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N25">
+        <v>241.87754</v>
+      </c>
+      <c r="O25">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P25">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q25">
+        <v>6790.584681038678</v>
+      </c>
+      <c r="R25">
+        <v>61115.26212934811</v>
+      </c>
+      <c r="S25">
+        <v>0.05626703010412985</v>
+      </c>
+      <c r="T25">
+        <v>0.06265897891255907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>84.22342166666667</v>
+      </c>
+      <c r="H26">
+        <v>252.670265</v>
+      </c>
+      <c r="I26">
+        <v>0.1048761568863419</v>
+      </c>
+      <c r="J26">
+        <v>0.1162958774471969</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.745477</v>
+      </c>
+      <c r="N26">
+        <v>5.236431</v>
+      </c>
+      <c r="O26">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P26">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q26">
+        <v>147.0100453804683</v>
+      </c>
+      <c r="R26">
+        <v>1323.090408424215</v>
+      </c>
+      <c r="S26">
+        <v>0.001218130549513604</v>
+      </c>
+      <c r="T26">
+        <v>0.001356510487108768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>124.1418495</v>
+      </c>
+      <c r="H27">
+        <v>248.283699</v>
+      </c>
+      <c r="I27">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J27">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.9078655</v>
+      </c>
+      <c r="N27">
+        <v>3.815731</v>
+      </c>
+      <c r="O27">
+        <v>0.01269552586568416</v>
+      </c>
+      <c r="P27">
+        <v>0.00849965309904553</v>
+      </c>
+      <c r="Q27">
+        <v>236.8459517672422</v>
+      </c>
+      <c r="R27">
+        <v>947.383807068969</v>
+      </c>
+      <c r="S27">
+        <v>0.001962514116838947</v>
+      </c>
+      <c r="T27">
+        <v>0.0009713138735067004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>124.1418495</v>
+      </c>
+      <c r="H28">
+        <v>248.283699</v>
+      </c>
+      <c r="I28">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J28">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.007239</v>
+      </c>
+      <c r="O28">
+        <v>0.008888468356299806</v>
+      </c>
+      <c r="P28">
+        <v>0.008926242805105003</v>
+      </c>
+      <c r="Q28">
+        <v>165.8220202828435</v>
+      </c>
+      <c r="R28">
+        <v>994.932121697061</v>
+      </c>
+      <c r="S28">
+        <v>0.001374007253489582</v>
+      </c>
+      <c r="T28">
+        <v>0.001020063215975423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>124.1418495</v>
+      </c>
+      <c r="H29">
+        <v>248.283699</v>
+      </c>
+      <c r="I29">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J29">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>64.66363666666668</v>
+      </c>
+      <c r="N29">
+        <v>193.99091</v>
+      </c>
+      <c r="O29">
+        <v>0.430291795659007</v>
+      </c>
+      <c r="P29">
+        <v>0.4321204611562405</v>
+      </c>
+      <c r="Q29">
+        <v>8027.463451196016</v>
+      </c>
+      <c r="R29">
+        <v>48164.78070717609</v>
+      </c>
+      <c r="S29">
+        <v>0.06651585229906296</v>
+      </c>
+      <c r="T29">
+        <v>0.04938137992882352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>124.1418495</v>
+      </c>
+      <c r="H30">
+        <v>248.283699</v>
+      </c>
+      <c r="I30">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J30">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N30">
+        <v>241.87754</v>
+      </c>
+      <c r="O30">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P30">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q30">
+        <v>10009.04172270341</v>
+      </c>
+      <c r="R30">
+        <v>60054.25033622046</v>
+      </c>
+      <c r="S30">
+        <v>0.08293528147839861</v>
+      </c>
+      <c r="T30">
+        <v>0.0615711669118373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>121.90067314908</v>
-      </c>
-      <c r="H25">
-        <v>121.90067314908</v>
-      </c>
-      <c r="I25">
-        <v>0.1603188371704675</v>
-      </c>
-      <c r="J25">
-        <v>0.1603188371704675</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="N25">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="O25">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="P25">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="Q25">
-        <v>209.4934106330547</v>
-      </c>
-      <c r="R25">
-        <v>209.4934106330547</v>
-      </c>
-      <c r="S25">
-        <v>0.00187962884472198</v>
-      </c>
-      <c r="T25">
-        <v>0.00187962884472198</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>124.1418495</v>
+      </c>
+      <c r="H31">
+        <v>248.283699</v>
+      </c>
+      <c r="I31">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J31">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.745477</v>
+      </c>
+      <c r="N31">
+        <v>5.236431</v>
+      </c>
+      <c r="O31">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P31">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q31">
+        <v>216.6867430397115</v>
+      </c>
+      <c r="R31">
+        <v>1300.120458238269</v>
+      </c>
+      <c r="S31">
+        <v>0.001795474184693677</v>
+      </c>
+      <c r="T31">
+        <v>0.001332960336554271</v>
       </c>
     </row>
   </sheetData>
